--- a/src/GameLogger.Web/Games.xlsx
+++ b/src/GameLogger.Web/Games.xlsx
@@ -197,10 +197,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-MM-dd"/>
-    <numFmt numFmtId="165" formatCode="m.d"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -281,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -309,16 +308,13 @@
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -802,10 +798,10 @@
       <c r="E12" s="6">
         <v>45261.0</v>
       </c>
-      <c r="F12" s="9">
-        <v>45387.0</v>
-      </c>
-      <c r="R12" s="10"/>
+      <c r="F12" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="R12" s="9"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
@@ -848,7 +844,7 @@
         <v>20.0</v>
       </c>
       <c r="R14" s="4"/>
-      <c r="S14" s="10"/>
+      <c r="S14" s="9"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
@@ -952,7 +948,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="5">
@@ -1044,13 +1040,13 @@
       <c r="D24" s="6">
         <v>45352.0</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="11">
         <v>45407.0</v>
       </c>
       <c r="F24" s="5">
         <v>79.0</v>
       </c>
-      <c r="P24" s="13"/>
+      <c r="P24" s="12"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
@@ -1085,7 +1081,7 @@
       <c r="D26" s="6">
         <v>45383.0</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
@@ -1217,10 +1213,10 @@
       <c r="C33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="11">
         <v>45448.0</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="11">
         <v>45486.0</v>
       </c>
       <c r="F33" s="5">
@@ -1257,7 +1253,7 @@
       <c r="C35" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="11">
         <v>45487.0</v>
       </c>
       <c r="E35" s="6">
@@ -1277,7 +1273,7 @@
       <c r="C36" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="11">
         <v>45488.0</v>
       </c>
       <c r="E36" s="6">
@@ -1360,7 +1356,7 @@
       <c r="D40" s="6">
         <v>45536.0</v>
       </c>
-      <c r="E40" s="14"/>
+      <c r="E40" s="13"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
@@ -1412,7 +1408,7 @@
       <c r="D43" s="6">
         <v>45559.0</v>
       </c>
-      <c r="E43" s="14"/>
+      <c r="E43" s="13"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
@@ -1447,7 +1443,7 @@
       <c r="D45" s="6">
         <v>45571.0</v>
       </c>
-      <c r="E45" s="14"/>
+      <c r="E45" s="13"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
@@ -1542,7 +1538,7 @@
       <c r="D50" s="6">
         <v>45591.0</v>
       </c>
-      <c r="E50" s="14"/>
+      <c r="E50" s="13"/>
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
@@ -1557,7 +1553,7 @@
       <c r="D51" s="6">
         <v>45596.0</v>
       </c>
-      <c r="E51" s="14"/>
+      <c r="E51" s="13"/>
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
@@ -1572,7 +1568,7 @@
       <c r="D52" s="6">
         <v>45598.0</v>
       </c>
-      <c r="E52" s="14"/>
+      <c r="E52" s="13"/>
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
@@ -1587,7 +1583,7 @@
       <c r="D53" s="6">
         <v>45605.0</v>
       </c>
-      <c r="E53" s="14"/>
+      <c r="E53" s="13"/>
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
@@ -1602,91 +1598,91 @@
       <c r="D54" s="6">
         <v>45607.0</v>
       </c>
-      <c r="E54" s="14"/>
+      <c r="E54" s="13"/>
     </row>
     <row r="55">
       <c r="B55" s="5">
         <v>0.0</v>
       </c>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
     </row>
     <row r="56">
       <c r="B56" s="5">
         <v>0.0</v>
       </c>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
     </row>
     <row r="57">
       <c r="B57" s="5">
         <v>0.0</v>
       </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
     </row>
     <row r="58">
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
     </row>
     <row r="59">
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
     </row>
     <row r="60">
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
     </row>
     <row r="61">
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
     </row>
     <row r="62">
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
     </row>
     <row r="63">
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
     </row>
     <row r="64">
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
     </row>
     <row r="65">
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
     </row>
     <row r="66">
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
     </row>
     <row r="67">
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
     </row>
     <row r="68">
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
     </row>
     <row r="69">
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
     </row>
     <row r="70">
-      <c r="E70" s="14"/>
+      <c r="E70" s="13"/>
     </row>
     <row r="71">
-      <c r="E71" s="14"/>
+      <c r="E71" s="13"/>
     </row>
     <row r="72">
-      <c r="E72" s="14"/>
+      <c r="E72" s="13"/>
     </row>
     <row r="73">
-      <c r="E73" s="14"/>
+      <c r="E73" s="13"/>
     </row>
     <row r="74">
-      <c r="E74" s="14"/>
+      <c r="E74" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$2:$F$57"/>
